--- a/biology/Zoologie/Cantoria_violacea/Cantoria_violacea.xlsx
+++ b/biology/Zoologie/Cantoria_violacea/Cantoria_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cantoria violacea, unique représentant du genre Cantoria, est une espèce de serpents de la famille des Homalopsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cantoria violacea, unique représentant du genre Cantoria, est une espèce de serpents de la famille des Homalopsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Birmanie, dans le sud de la Thaïlande, aux îles Andaman, en Malaisie péninsulaire, à Singapour et en Indonésie à Sumatra et au Kalimantan[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud de la Birmanie, dans le sud de la Thaïlande, aux îles Andaman, en Malaisie péninsulaire, à Singapour et en Indonésie à Sumatra et au Kalimantan. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Girard, 1858 "1857" : Descriptions of some new Reptiles, collected by the US. Exploring Expedition under the command of Capt. Charles Wilkes, U.S.N. Third Part. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 9, p. 181-182 (texte intégral).</t>
         </is>
